--- a/Connect 4/Book1.xlsx
+++ b/Connect 4/Book1.xlsx
@@ -8,14 +8,16 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\wwden\Documents\GitHub\The-Music-of-Primes\Connect 4\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{69591721-90C2-42EC-AB50-B0E97926AFB7}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{A1DF4CE3-7B72-4F5E-909F-399F6D2953DD}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{6CE8CC32-DAC8-47B0-8B7D-A2BB4A4B7BFE}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{6CE8CC32-DAC8-47B0-8B7D-A2BB4A4B7BFE}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Try 1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
+  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -31,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="9">
   <si>
     <t>gen</t>
   </si>
@@ -43,6 +45,21 @@
   </si>
   <si>
     <t>best avg</t>
+  </si>
+  <si>
+    <t>130, 2 children</t>
+  </si>
+  <si>
+    <t>adult avg</t>
+  </si>
+  <si>
+    <t>children avg</t>
+  </si>
+  <si>
+    <t>top 40</t>
+  </si>
+  <si>
+    <t>19 (760)</t>
   </si>
 </sst>
 </file>
@@ -152,7 +169,7 @@
           <c:order val="0"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$C$3</c:f>
+              <c:f>'Try 1'!$C$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -199,12 +216,26 @@
             </c:spPr>
             <c:trendlineType val="linear"/>
             <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent1"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
             <c:dispEq val="1"/>
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="2.60411198600175E-3"/>
-                  <c:y val="-0.17246536891221931"/>
+                  <c:x val="1.469488188976378E-2"/>
+                  <c:y val="-8.109179060950715E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -239,7 +270,7 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$29</c:f>
+              <c:f>'Try 1'!$B$4:$B$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -326,10 +357,76 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$4:$C$29</c:f>
+              <c:f>'Try 1'!$C$4:$C$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>1359</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1372</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1324</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1390</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1477</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1502</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1521</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1454</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1364</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1465</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1436</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1501</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1501</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1436</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1510</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1452</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1454</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1359</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1519</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1464</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1395</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1476</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -345,7 +442,7 @@
           <c:order val="1"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$D$3</c:f>
+              <c:f>'Try 1'!$D$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -366,9 +463,73 @@
           <c:marker>
             <c:symbol val="none"/>
           </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="1"/>
+            <c:trendlineLbl>
+              <c:layout>
+                <c:manualLayout>
+                  <c:x val="-1.9717847769028869E-3"/>
+                  <c:y val="0.12138451443569553"/>
+                </c:manualLayout>
+              </c:layout>
+              <c:numFmt formatCode="General" sourceLinked="0"/>
+              <c:spPr>
+                <a:noFill/>
+                <a:ln>
+                  <a:noFill/>
+                </a:ln>
+                <a:effectLst/>
+              </c:spPr>
+              <c:txPr>
+                <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+                <a:lstStyle/>
+                <a:p>
+                  <a:pPr>
+                    <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                      <a:solidFill>
+                        <a:schemeClr val="tx1">
+                          <a:lumMod val="65000"/>
+                          <a:lumOff val="35000"/>
+                        </a:schemeClr>
+                      </a:solidFill>
+                      <a:latin typeface="+mn-lt"/>
+                      <a:ea typeface="+mn-ea"/>
+                      <a:cs typeface="+mn-cs"/>
+                    </a:defRPr>
+                  </a:pPr>
+                  <a:endParaRPr lang="en-US"/>
+                </a:p>
+              </c:txPr>
+            </c:trendlineLbl>
+          </c:trendline>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="19050" cap="rnd">
+                <a:solidFill>
+                  <a:schemeClr val="accent2"/>
+                </a:solidFill>
+                <a:prstDash val="sysDot"/>
+              </a:ln>
+              <a:effectLst/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$29</c:f>
+              <c:f>'Try 1'!$B$4:$B$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -455,10 +616,76 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$4:$D$29</c:f>
+              <c:f>'Try 1'!$D$4:$D$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>872</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>862</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>860</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>854</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>851</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>832</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>857</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>858</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>867</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>880</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>862</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>855</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>874</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>894</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>889</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>873</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>875</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>879</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>859</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>872</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>880</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>865</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -474,7 +701,7 @@
           <c:order val="2"/>
           <c:tx>
             <c:strRef>
-              <c:f>Sheet1!$E$3</c:f>
+              <c:f>'Try 1'!$E$3</c:f>
               <c:strCache>
                 <c:ptCount val="1"/>
                 <c:pt idx="0">
@@ -511,8 +738,8 @@
             <c:trendlineLbl>
               <c:layout>
                 <c:manualLayout>
-                  <c:x val="1.195100612423447E-3"/>
-                  <c:y val="-5.6659740449110527E-2"/>
+                  <c:x val="6.1236657917760277E-2"/>
+                  <c:y val="-3.1670312044327791E-2"/>
                 </c:manualLayout>
               </c:layout>
               <c:numFmt formatCode="General" sourceLinked="0"/>
@@ -547,7 +774,7 @@
           </c:trendline>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$B$4:$B$29</c:f>
+              <c:f>'Try 1'!$B$4:$B$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
@@ -634,10 +861,76 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$E$4:$E$29</c:f>
+              <c:f>'Try 1'!$E$4:$E$29</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="26"/>
+                <c:pt idx="0">
+                  <c:v>1197</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1221</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1216</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1225</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1229</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1260</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1219</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1219</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1204</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1183</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1211</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1223</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1194</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1162</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1171</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1195</c:v>
+                </c:pt>
+                <c:pt idx="16">
+                  <c:v>1192</c:v>
+                </c:pt>
+                <c:pt idx="17">
+                  <c:v>1186</c:v>
+                </c:pt>
+                <c:pt idx="18">
+                  <c:v>1217</c:v>
+                </c:pt>
+                <c:pt idx="19">
+                  <c:v>1197</c:v>
+                </c:pt>
+                <c:pt idx="20">
+                  <c:v>1184</c:v>
+                </c:pt>
+                <c:pt idx="21">
+                  <c:v>1208</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -853,7 +1146,880 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:lineChart>
+        <c:grouping val="standard"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$C$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>top</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent1"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$C$4:$C$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1385</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1809</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1574</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1683</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1544</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1656</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1793</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1464</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1538</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1503</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1764</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1445</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1586</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1722</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1424</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1799</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-5587-4D7A-BCBE-D31527E63405}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$D$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>ran avg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent2"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$D$4:$D$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>713</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>797</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>804</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>789</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>756</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>878</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>780</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>953</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>680</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>764</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>767</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>808</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>842</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>790</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>912</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>662</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-5587-4D7A-BCBE-D31527E63405}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="2"/>
+          <c:order val="2"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>adult avg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent3"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$4:$E$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>856</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>839</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>838</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>841</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>847</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>823</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>842</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>808</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>862</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>846</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>845</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>837</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>830</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>840</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>816</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>866</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000002-5587-4D7A-BCBE-D31527E63405}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="3"/>
+          <c:order val="3"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$3</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>children avg</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:ln w="28575" cap="rnd">
+              <a:solidFill>
+                <a:schemeClr val="accent4"/>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:cat>
+            <c:numRef>
+              <c:f>Sheet1!$B$4:$B$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>0</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>4</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>5</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>6</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>7</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>8</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>9</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>10</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>11</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>12</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>13</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>14</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>15</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$4:$F$19</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="16"/>
+                <c:pt idx="0">
+                  <c:v>1084</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>1063</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1061</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>1065</c:v>
+                </c:pt>
+                <c:pt idx="4">
+                  <c:v>1073</c:v>
+                </c:pt>
+                <c:pt idx="5">
+                  <c:v>1042</c:v>
+                </c:pt>
+                <c:pt idx="6">
+                  <c:v>1067</c:v>
+                </c:pt>
+                <c:pt idx="7">
+                  <c:v>1023</c:v>
+                </c:pt>
+                <c:pt idx="8">
+                  <c:v>1092</c:v>
+                </c:pt>
+                <c:pt idx="9">
+                  <c:v>1071</c:v>
+                </c:pt>
+                <c:pt idx="10">
+                  <c:v>1070</c:v>
+                </c:pt>
+                <c:pt idx="11">
+                  <c:v>1060</c:v>
+                </c:pt>
+                <c:pt idx="12">
+                  <c:v>1051</c:v>
+                </c:pt>
+                <c:pt idx="13">
+                  <c:v>1065</c:v>
+                </c:pt>
+                <c:pt idx="14">
+                  <c:v>1034</c:v>
+                </c:pt>
+                <c:pt idx="15">
+                  <c:v>1097</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:smooth val="0"/>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000003-5587-4D7A-BCBE-D31527E63405}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:smooth val="0"/>
+        <c:axId val="557460992"/>
+        <c:axId val="557461648"/>
+      </c:lineChart>
+      <c:catAx>
+        <c:axId val="557460992"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+            <a:solidFill>
+              <a:schemeClr val="tx1">
+                <a:lumMod val="15000"/>
+                <a:lumOff val="85000"/>
+              </a:schemeClr>
+            </a:solidFill>
+            <a:round/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="557461648"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="557461648"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="en-US"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="557460992"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="en-US"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="en-US"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
   <a:schemeClr val="accent2"/>
@@ -1409,6 +2575,522 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="227">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+    </cs:spPr>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="phClr"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="65000"/>
+          <a:lumOff val="35000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="75000"/>
+            <a:lumOff val="25000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
@@ -1430,6 +3112,47 @@
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
               <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{AD98742A-815D-4C0D-B44D-2C2E1ECC038C}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>333375</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>100012</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>28575</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>176212</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Chart 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD957891-9636-4947-B642-8CAD738AB672}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -1747,14 +3470,22 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38429279-B8CE-47A6-BE15-80A4C1F42AF5}">
-  <dimension ref="B3:E103"/>
+  <dimension ref="B2:E103"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G21" sqref="G21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
+    <row r="2" spans="2:5" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>610</v>
+      </c>
+      <c r="E2" t="s">
+        <v>4</v>
+      </c>
+    </row>
     <row r="3" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B3" t="s">
         <v>0</v>
@@ -1773,143 +3504,341 @@
       <c r="B4">
         <v>1</v>
       </c>
+      <c r="C4">
+        <v>1359</v>
+      </c>
+      <c r="D4">
+        <v>872</v>
+      </c>
+      <c r="E4">
+        <v>1197</v>
+      </c>
     </row>
     <row r="5" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>2</v>
       </c>
+      <c r="C5">
+        <v>1372</v>
+      </c>
+      <c r="D5">
+        <v>862</v>
+      </c>
+      <c r="E5">
+        <v>1221</v>
+      </c>
     </row>
     <row r="6" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>3</v>
       </c>
+      <c r="C6">
+        <v>1324</v>
+      </c>
+      <c r="D6">
+        <v>860</v>
+      </c>
+      <c r="E6">
+        <v>1216</v>
+      </c>
     </row>
     <row r="7" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>4</v>
       </c>
+      <c r="C7">
+        <v>1390</v>
+      </c>
+      <c r="D7">
+        <v>854</v>
+      </c>
+      <c r="E7">
+        <v>1225</v>
+      </c>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>5</v>
       </c>
+      <c r="C8">
+        <v>1477</v>
+      </c>
+      <c r="D8">
+        <v>851</v>
+      </c>
+      <c r="E8">
+        <v>1229</v>
+      </c>
     </row>
     <row r="9" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B9">
         <v>6</v>
       </c>
+      <c r="C9">
+        <v>1502</v>
+      </c>
+      <c r="D9">
+        <v>832</v>
+      </c>
+      <c r="E9">
+        <v>1260</v>
+      </c>
     </row>
     <row r="10" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B10">
         <v>7</v>
       </c>
+      <c r="C10">
+        <v>1521</v>
+      </c>
+      <c r="D10">
+        <v>857</v>
+      </c>
+      <c r="E10">
+        <v>1219</v>
+      </c>
     </row>
     <row r="11" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B11">
         <v>8</v>
       </c>
+      <c r="C11">
+        <v>1454</v>
+      </c>
+      <c r="D11">
+        <v>858</v>
+      </c>
+      <c r="E11">
+        <v>1219</v>
+      </c>
     </row>
     <row r="12" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B12">
         <v>9</v>
       </c>
+      <c r="C12">
+        <v>1364</v>
+      </c>
+      <c r="D12">
+        <v>867</v>
+      </c>
+      <c r="E12">
+        <v>1204</v>
+      </c>
     </row>
     <row r="13" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B13">
         <v>10</v>
       </c>
+      <c r="C13">
+        <v>1465</v>
+      </c>
+      <c r="D13">
+        <v>880</v>
+      </c>
+      <c r="E13">
+        <v>1183</v>
+      </c>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B14">
         <v>11</v>
       </c>
+      <c r="C14">
+        <v>1436</v>
+      </c>
+      <c r="D14">
+        <v>862</v>
+      </c>
+      <c r="E14">
+        <v>1211</v>
+      </c>
     </row>
     <row r="15" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B15">
         <v>12</v>
       </c>
+      <c r="C15">
+        <v>1501</v>
+      </c>
+      <c r="D15">
+        <v>855</v>
+      </c>
+      <c r="E15">
+        <v>1223</v>
+      </c>
     </row>
     <row r="16" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B16">
         <v>13</v>
       </c>
-    </row>
-    <row r="17" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C16">
+        <v>1501</v>
+      </c>
+      <c r="D16">
+        <v>874</v>
+      </c>
+      <c r="E16">
+        <v>1194</v>
+      </c>
+    </row>
+    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B17">
         <v>14</v>
       </c>
-    </row>
-    <row r="18" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C17">
+        <v>1436</v>
+      </c>
+      <c r="D17">
+        <v>894</v>
+      </c>
+      <c r="E17">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B18">
         <v>15</v>
       </c>
-    </row>
-    <row r="19" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C18">
+        <v>1510</v>
+      </c>
+      <c r="D18">
+        <v>889</v>
+      </c>
+      <c r="E18">
+        <v>1171</v>
+      </c>
+    </row>
+    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B19">
         <v>16</v>
       </c>
-    </row>
-    <row r="20" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C19">
+        <v>1452</v>
+      </c>
+      <c r="D19">
+        <v>873</v>
+      </c>
+      <c r="E19">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="20" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B20">
         <v>17</v>
       </c>
-    </row>
-    <row r="21" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C20">
+        <v>1454</v>
+      </c>
+      <c r="D20">
+        <v>875</v>
+      </c>
+      <c r="E20">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B21">
         <v>18</v>
       </c>
-    </row>
-    <row r="22" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C21">
+        <v>1359</v>
+      </c>
+      <c r="D21">
+        <v>879</v>
+      </c>
+      <c r="E21">
+        <v>1186</v>
+      </c>
+    </row>
+    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B22">
         <v>19</v>
       </c>
-    </row>
-    <row r="23" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C22">
+        <v>1519</v>
+      </c>
+      <c r="D22">
+        <v>859</v>
+      </c>
+      <c r="E22">
+        <v>1217</v>
+      </c>
+    </row>
+    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B23">
         <v>20</v>
       </c>
-    </row>
-    <row r="24" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C23">
+        <v>1464</v>
+      </c>
+      <c r="D23">
+        <v>872</v>
+      </c>
+      <c r="E23">
+        <v>1197</v>
+      </c>
+    </row>
+    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B24">
         <v>21</v>
       </c>
-    </row>
-    <row r="25" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C24">
+        <v>1395</v>
+      </c>
+      <c r="D24">
+        <v>880</v>
+      </c>
+      <c r="E24">
+        <v>1184</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B25">
         <v>22</v>
       </c>
-    </row>
-    <row r="26" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="C25">
+        <v>1476</v>
+      </c>
+      <c r="D25">
+        <v>865</v>
+      </c>
+      <c r="E25">
+        <v>1208</v>
+      </c>
+    </row>
+    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B26">
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B27">
         <v>24</v>
       </c>
     </row>
-    <row r="28" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B28">
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B29">
         <v>26</v>
       </c>
     </row>
-    <row r="30" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B30">
         <v>27</v>
       </c>
     </row>
-    <row r="31" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B31">
         <v>28</v>
       </c>
     </row>
-    <row r="32" spans="2:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
       <c r="B32">
         <v>29</v>
       </c>
@@ -2267,6 +4196,762 @@
     <row r="103" spans="2:2" x14ac:dyDescent="0.25">
       <c r="B103">
         <v>100</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{361714CE-F209-484C-83ED-514D68ACA740}">
+  <dimension ref="B2:F103"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="P20" sqref="P20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="4" max="4" width="10" customWidth="1"/>
+    <col min="5" max="5" width="9" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="11.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="D2">
+        <v>200</v>
+      </c>
+      <c r="E2" t="s">
+        <v>7</v>
+      </c>
+      <c r="F2" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" t="s">
+        <v>1</v>
+      </c>
+      <c r="D3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E3" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>0</v>
+      </c>
+      <c r="C4">
+        <v>1385</v>
+      </c>
+      <c r="D4">
+        <v>713</v>
+      </c>
+      <c r="E4">
+        <v>856</v>
+      </c>
+      <c r="F4">
+        <v>1084</v>
+      </c>
+    </row>
+    <row r="5" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>1</v>
+      </c>
+      <c r="C5">
+        <v>1809</v>
+      </c>
+      <c r="D5">
+        <v>797</v>
+      </c>
+      <c r="E5">
+        <v>839</v>
+      </c>
+      <c r="F5">
+        <v>1063</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>1574</v>
+      </c>
+      <c r="D6">
+        <v>804</v>
+      </c>
+      <c r="E6">
+        <v>838</v>
+      </c>
+      <c r="F6">
+        <v>1061</v>
+      </c>
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>3</v>
+      </c>
+      <c r="C7">
+        <v>1683</v>
+      </c>
+      <c r="D7">
+        <v>789</v>
+      </c>
+      <c r="E7">
+        <v>841</v>
+      </c>
+      <c r="F7">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>1544</v>
+      </c>
+      <c r="D8">
+        <v>756</v>
+      </c>
+      <c r="E8">
+        <v>847</v>
+      </c>
+      <c r="F8">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="9" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>5</v>
+      </c>
+      <c r="C9">
+        <v>1656</v>
+      </c>
+      <c r="D9">
+        <v>878</v>
+      </c>
+      <c r="E9">
+        <v>823</v>
+      </c>
+      <c r="F9">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>6</v>
+      </c>
+      <c r="C10">
+        <v>1793</v>
+      </c>
+      <c r="D10">
+        <v>780</v>
+      </c>
+      <c r="E10">
+        <v>842</v>
+      </c>
+      <c r="F10">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B11">
+        <v>7</v>
+      </c>
+      <c r="C11">
+        <v>1464</v>
+      </c>
+      <c r="D11">
+        <v>953</v>
+      </c>
+      <c r="E11">
+        <v>808</v>
+      </c>
+      <c r="F11">
+        <v>1023</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B12">
+        <v>8</v>
+      </c>
+      <c r="C12">
+        <v>1538</v>
+      </c>
+      <c r="D12">
+        <v>680</v>
+      </c>
+      <c r="E12">
+        <v>862</v>
+      </c>
+      <c r="F12">
+        <v>1092</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B13">
+        <v>9</v>
+      </c>
+      <c r="C13">
+        <v>1503</v>
+      </c>
+      <c r="D13">
+        <v>764</v>
+      </c>
+      <c r="E13">
+        <v>846</v>
+      </c>
+      <c r="F13">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="14" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B14">
+        <v>10</v>
+      </c>
+      <c r="C14">
+        <v>1764</v>
+      </c>
+      <c r="D14">
+        <v>767</v>
+      </c>
+      <c r="E14">
+        <v>845</v>
+      </c>
+      <c r="F14">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="15" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>11</v>
+      </c>
+      <c r="C15">
+        <v>1445</v>
+      </c>
+      <c r="D15">
+        <v>808</v>
+      </c>
+      <c r="E15">
+        <v>837</v>
+      </c>
+      <c r="F15">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="16" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>12</v>
+      </c>
+      <c r="C16">
+        <v>1586</v>
+      </c>
+      <c r="D16">
+        <v>842</v>
+      </c>
+      <c r="E16">
+        <v>830</v>
+      </c>
+      <c r="F16">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="17" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>13</v>
+      </c>
+      <c r="C17">
+        <v>1722</v>
+      </c>
+      <c r="D17">
+        <v>790</v>
+      </c>
+      <c r="E17">
+        <v>840</v>
+      </c>
+      <c r="F17">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="18" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B18">
+        <v>14</v>
+      </c>
+      <c r="C18">
+        <v>1424</v>
+      </c>
+      <c r="D18">
+        <v>912</v>
+      </c>
+      <c r="E18">
+        <v>816</v>
+      </c>
+      <c r="F18">
+        <v>1034</v>
+      </c>
+    </row>
+    <row r="19" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B19">
+        <v>15</v>
+      </c>
+      <c r="C19">
+        <v>1799</v>
+      </c>
+      <c r="D19">
+        <v>662</v>
+      </c>
+      <c r="E19">
+        <v>866</v>
+      </c>
+      <c r="F19">
+        <v>1097</v>
+      </c>
+    </row>
+    <row r="20" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B20">
+        <v>16</v>
+      </c>
+      <c r="C20">
+        <v>1800</v>
+      </c>
+      <c r="D20">
+        <v>748</v>
+      </c>
+      <c r="E20">
+        <v>849</v>
+      </c>
+      <c r="F20">
+        <v>1075</v>
+      </c>
+    </row>
+    <row r="21" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B21">
+        <v>17</v>
+      </c>
+      <c r="C21">
+        <v>1741</v>
+      </c>
+    </row>
+    <row r="22" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B22">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="23" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B23">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B24">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="25" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B25">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="26" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B26">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="27" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B27">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="28" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B28">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="29" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B29">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="30" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B30">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="31" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B31">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="2:6" x14ac:dyDescent="0.25">
+      <c r="B32">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B33">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B34">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B35">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B36">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B37">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B39">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B40">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B41">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B42">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B43">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B44">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B45">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B46">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B47">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B48">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B49">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B50">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B51">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B52">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B53">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B54">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B55">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B56">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B57">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B58">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B59">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B60">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B61">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B62">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B63">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B64">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B65">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B66">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B67">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B68">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B69">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B70">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B71">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B72">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B73">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B74">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B75">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B76">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B77">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B78">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B79">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B80">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B81">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B82">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B83">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B84">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B85">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B86">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B87">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B88">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B89">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B90">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B91">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B92">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B93">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B94">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B95">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B96">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B97">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B98">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B99">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B100">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B101">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B102">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.25">
+      <c r="B103">
+        <v>99</v>
       </c>
     </row>
   </sheetData>
